--- a/data/nuc_cell_seg_delivery_20170210/3500000518.xlsx
+++ b/data/nuc_cell_seg_delivery_20170210/3500000518.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="0" windowWidth="19095" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
     <t>3500000518_100X_20170203_E05_P01.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;</t>
+    <t>2;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E05_P01.czi_nucWholeIndexSegScale.tiff</t>
@@ -188,7 +188,7 @@
     <t>3500000518_100X_20170203_E05_P02.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;04;06;</t>
+    <t>1;2;3;4;6;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E05_P02.czi_nucWholeIndexSegScale.tiff</t>
@@ -200,7 +200,7 @@
     <t>3500000518_100X_20170203_E05_P03.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;04;05;</t>
+    <t>1;2;4;5;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E05_P03.czi_nucWholeIndexSegScale.tiff</t>
@@ -212,7 +212,7 @@
     <t>3500000518_100X_20170203_E05_P04.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;</t>
+    <t>1;2;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E05_P04.czi_nucWholeIndexSegScale.tiff</t>
@@ -224,7 +224,7 @@
     <t>3500000518_100X_20170203_E05_P05.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;</t>
+    <t>1;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E05_P05.czi_nucWholeIndexSegScale.tiff</t>
@@ -236,7 +236,7 @@
     <t>3500000518_100X_20170203_E06_P06.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;</t>
+    <t>1;3;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E06_P06.czi_nucWholeIndexSegScale.tiff</t>
@@ -257,7 +257,7 @@
     <t>3500000518_100X_20170203_E06_P08.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;03;04;</t>
+    <t>2;3;4;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E06_P08.czi_nucWholeIndexSegScale.tiff</t>
@@ -269,7 +269,7 @@
     <t>3500000518_100X_20170203_E06_P09.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;04;05;</t>
+    <t>1;2;3;4;5;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E06_P09.czi_nucWholeIndexSegScale.tiff</t>
@@ -281,7 +281,7 @@
     <t>3500000518_100X_20170203_E06_P10.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;03;</t>
+    <t>2;3;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E06_P10.czi_nucWholeIndexSegScale.tiff</t>
@@ -293,7 +293,7 @@
     <t>3500000518_100X_20170203_E07_P11.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>04;05;</t>
+    <t>4;5;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E07_P11.czi_nucWholeIndexSegScale.tiff</t>
@@ -305,7 +305,7 @@
     <t>3500000518_100X_20170203_E07_P12.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;03;04;05;</t>
+    <t>2;3;4;5;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_E07_P12.czi_nucWholeIndexSegScale.tiff</t>
@@ -317,7 +317,7 @@
     <t>3500000518_100X_20170203_F06_P18.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;04;05;</t>
+    <t>2;4;5;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_F06_P18.czi_nucWholeIndexSegScale.tiff</t>
@@ -329,7 +329,7 @@
     <t>3500000518_100X_20170203_F06_P19.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;05;</t>
+    <t>1;2;5;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_F06_P19.czi_nucWholeIndexSegScale.tiff</t>
@@ -350,7 +350,7 @@
     <t>3500000518_100X_20170203_F06_P21.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;05;06;</t>
+    <t>1;2;5;6;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_F06_P21.czi_nucWholeIndexSegScale.tiff</t>
@@ -371,7 +371,7 @@
     <t>3500000518_100X_20170203_F06_P25.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;04;05;</t>
+    <t>1;3;4;5;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_F06_P25.czi_nucWholeIndexSegScale.tiff</t>
@@ -392,7 +392,7 @@
     <t>3500000518_100X_20170203_F07_P14.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;04;</t>
+    <t>1;2;4;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_F07_P14.czi_nucWholeIndexSegScale.tiff</t>
@@ -404,7 +404,7 @@
     <t>3500000518_100X_20170203_F07_P15.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;04;05;07;08;</t>
+    <t>1;2;4;5;7;8;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_F07_P15.czi_nucWholeIndexSegScale.tiff</t>
@@ -425,7 +425,7 @@
     <t>3500000518_100X_20170203_F07_P17.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;</t>
+    <t>1;2;3;</t>
   </si>
   <si>
     <t>3500000518_100X_20170203_F07_P17.czi_nucWholeIndexSegScale.tiff</t>
@@ -840,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1:W25"/>
     </sheetView>
   </sheetViews>
@@ -940,7 +940,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>6</v>
@@ -1011,7 +1011,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -1082,7 +1082,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -1153,7 +1153,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -1224,7 +1224,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>6</v>
@@ -1295,7 +1295,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1366,7 +1366,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -1437,7 +1437,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1508,7 +1508,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1579,7 +1579,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -1650,7 +1650,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -1721,7 +1721,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -1792,7 +1792,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -1863,7 +1863,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -1934,7 +1934,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -2005,7 +2005,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -2076,7 +2076,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -2147,7 +2147,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -2218,7 +2218,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>6</v>
@@ -2289,7 +2289,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -2360,7 +2360,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -2431,7 +2431,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>6</v>
@@ -2502,7 +2502,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -2573,7 +2573,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>6</v>
